--- a/BloodstreamAPI/testData/conclusionInfo.xlsx
+++ b/BloodstreamAPI/testData/conclusionInfo.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75384F8-004A-477B-A3C8-5B14756BF984}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{03DE2D1A-9222-4AD6-96CD-C98D38105116}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conclusions" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>PageSize</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Approved1</t>
   </si>
 </sst>
 </file>
@@ -416,7 +420,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +505,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>

--- a/BloodstreamAPI/testData/conclusionInfo.xlsx
+++ b/BloodstreamAPI/testData/conclusionInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{03DE2D1A-9222-4AD6-96CD-C98D38105116}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{570B8405-A62A-4DDA-957D-AAC65700753D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conclusions" sheetId="2" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,102 +470,118 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BloodstreamAPI/testData/conclusionInfo.xlsx
+++ b/BloodstreamAPI/testData/conclusionInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{570B8405-A62A-4DDA-957D-AAC65700753D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7C536B0E-BAE4-441C-972B-1FA85B5ADD90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conclusions" sheetId="2" r:id="rId1"/>
@@ -21,16 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
-  <si>
-    <t>PageSize</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Sort</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>EndPoint</t>
   </si>
@@ -121,9 +112,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -131,6 +119,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -420,168 +411,102 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BloodstreamAPI/testData/conclusionInfo.xlsx
+++ b/BloodstreamAPI/testData/conclusionInfo.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7C536B0E-BAE4-441C-972B-1FA85B5ADD90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA42568-57EA-4C86-9CB8-0C875C6C6F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conclusions" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>Assert200</t>
-  </si>
-  <si>
     <t>Assert400</t>
   </si>
   <si>
@@ -45,6 +41,12 @@
   </si>
   <si>
     <t>Approved1</t>
+  </si>
+  <si>
+    <t>Assert200_pendingtoapprove</t>
+  </si>
+  <si>
+    <t>Assert200_approved</t>
   </si>
 </sst>
 </file>
@@ -408,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,88 +426,110 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
